--- a/medicine/Autisme/Norm_Ledgin/Norm_Ledgin.xlsx
+++ b/medicine/Autisme/Norm_Ledgin/Norm_Ledgin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Norm Ledgin (né le 15 juillet 1928 à Passaic, New Jersey) est un écrivain et journaliste américain, vivant à Stanley, Overland Park, dans le Kansas. Il est connu pour ses ouvrages traitant de l'autisme, Asperger's and Self-Esteem: Insight and Hope Through Famous Role Models (2002), et Diagnosing Jefferson: Evidence of a Condition that Guided His Beliefs, Behavior, and Personal Associations (2000). Ce dernier affirme que Thomas Jefferson a démontré des traits de syndrome d'Asperger[1]. En 2012, il a publié un roman historique Sally of Monticello: Founding Mother,  à propos de l'histoire d'amour de 38 ans entre Thomas Jefferson et Sally Hemings.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norm Ledgin (né le 15 juillet 1928 à Passaic, New Jersey) est un écrivain et journaliste américain, vivant à Stanley, Overland Park, dans le Kansas. Il est connu pour ses ouvrages traitant de l'autisme, Asperger's and Self-Esteem: Insight and Hope Through Famous Role Models (2002), et Diagnosing Jefferson: Evidence of a Condition that Guided His Beliefs, Behavior, and Personal Associations (2000). Ce dernier affirme que Thomas Jefferson a démontré des traits de syndrome d'Asperger. En 2012, il a publié un roman historique Sally of Monticello: Founding Mother,  à propos de l'histoire d'amour de 38 ans entre Thomas Jefferson et Sally Hemings.
 </t>
         </is>
       </c>
